--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -1,62 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\MoBosse\DnsUpgradeEnvironment\transfer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7A6F0C-04C4-4E26-92D1-B0FA057B0BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Dic_Disagg_Kategorien"/>
+    <sheet name="Dic_Disagg_Kategorien" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>KNr</t>
+  </si>
+  <si>
+    <t>Kategorie De</t>
+  </si>
+  <si>
+    <t>Kategorie En</t>
+  </si>
+  <si>
+    <t>K_LAENDER</t>
+  </si>
+  <si>
+    <t>Bundesland</t>
+  </si>
+  <si>
+    <t>Federal state</t>
+  </si>
+  <si>
+    <t>K_TEST</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -70,14 +92,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,10 +102,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -104,54 +129,39 @@
       <bottom style="thin">
         <color rgb="FFE7E6E6"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -193,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,52 +480,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="19.921875"/>
-    <col customWidth="true" min="3" max="3" width="28.85546875"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>KNr</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Kategorie De</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Kategorie En</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>K_LAENDER</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Bundesland</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Federal state</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -1,84 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dauerausleihe04\Documents\MoBosse\DnsUpgradeEnvironment\transfer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7A6F0C-04C4-4E26-92D1-B0FA057B0BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="Dic_Disagg_Kategorien" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="Dic_Disagg_Kategorien"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>KNr</t>
-  </si>
-  <si>
-    <t>Kategorie De</t>
-  </si>
-  <si>
-    <t>Kategorie En</t>
-  </si>
-  <si>
-    <t>K_LAENDER</t>
-  </si>
-  <si>
-    <t>Bundesland</t>
-  </si>
-  <si>
-    <t>Federal state</t>
-  </si>
-  <si>
-    <t>K_TEST</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="MS Sans Serif"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -92,8 +70,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -102,19 +86,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin">
@@ -129,39 +104,54 @@
       <bottom style="thin">
         <color rgb="FFE7E6E6"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="left"/>
+      <protection locked="1" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -203,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,27 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,24 +259,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,51 +434,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col customWidth="true" min="1" max="1" width="13.8359375"/>
+    <col customWidth="true" min="2" max="2" width="19.921875"/>
+    <col customWidth="true" min="3" max="3" width="28.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>KNr</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Kategorie De</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Kategorie En</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Bundesland</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Federal state</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>K_AGE</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Altersklasse</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Age group</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Geschlecht</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>K_AIRPOLL</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Luftschadstoff</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Air pollutant</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>K_PM</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Feinstaub</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Fine particulate matter</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Gebiet</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Verstädterungsgrad</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Degree of urbanisation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>K_SEA</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Meer</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIM</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Straftat</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Criminal offence</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -468,153 +468,153 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Altersklasse</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>Age group</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Altersklasse</t>
+          <t>Luftschadstoff</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Age group</t>
+          <t>Air pollutant</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Gebiet</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>K_AIRPOLL</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Luftschadstoff</t>
+          <t>Straftat</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Air pollutant</t>
+          <t>Criminal offence</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Gebiet</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Straftat</t>
+          <t>Verstädterungsgrad</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Criminal offence</t>
+          <t>Degree of urbanisation</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -587,32 +587,49 @@
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Geschlecht</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
           <t>K_URBAN</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Verstädterungsgrad</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Degree of urbanisation</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -635,6 +635,23 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Kreis</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -536,119 +536,119 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>Verstädterungsgrad</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Degree of urbanisation</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -652,6 +652,23 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Art der Fläche</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Type of area</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -638,34 +638,68 @@
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Verstädterungsgrad</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>Degree of urbanisation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>K_SUBINDEX</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Subindikatoren</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Sub index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIMOFF</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Straftaten</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -536,170 +536,170 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Subindikatoren</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Subindikatoren</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Verstädterungsgrad</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Degree of urbanisation</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Subindikatoren</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -703,6 +703,23 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>K_CALCMETH</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Berechnungsmethode</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Calculation method</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -519,204 +519,204 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Straftat</t>
+          <t>Berechnungsmethode</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Criminal offence</t>
+          <t>Calculation method</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Straftat</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Criminal offence</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Berechnungsmethode</t>
+          <t>Verstädterungsgrad</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Calculation method</t>
+          <t>Degree of urbanisation</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Dic_Disagg_Kategorien"/>
+    <sheet sheetId="1" r:id="rId1" name="Dic_Einheit"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,280 +443,484 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="19.921875"/>
-    <col customWidth="true" min="3" max="3" width="28.85546875"/>
+    <col customWidth="true" min="1" max="1" width="22.8515625"/>
+    <col customWidth="true" min="2" max="2" width="67.52734375"/>
+    <col customWidth="true" min="3" max="3" width="82.6171875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>KNr</t>
+          <t>ENr</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Kategorie De</t>
+          <t>Einheit De</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Kategorie En</t>
+          <t>Einheit En</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>E_10H3</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Altersklasse</t>
+          <t>1 000</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Age group</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>K_AIRPOLL</t>
+          <t>E_10H7</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Luftschadstoff</t>
+          <t>Millionen</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Air pollutant</t>
+          <t>Millions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>K_AREA</t>
+          <t>E_BNEUR</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Gebiet</t>
+          <t>Milliarden EUR</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Billion EUR</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>E_EWPKM2</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Berechnungsmethode</t>
+          <t>Einwohner/-innen pro m² Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Calculation method</t>
+          <t>Inhabitants per m² settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>E_GINI</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Straftat</t>
+          <t>Gini-Koeffizient</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Criminal offence</t>
+          <t>Gini coefficient</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>E_HAPD</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Hektar pro Tag</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Hectre per day</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>E_IDX_1990</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>1990 = 100</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>1990 = 100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>E_IDX_2030</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>2030 = 100</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>2030 = 100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>E_IDX2000</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>2000 = 100</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>2000 = 100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>E_IDX2005</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>2005 = 100</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>2005 = 100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>2008 = 100</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>2008 = 100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>E_IDX2010</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>2010 = 100</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>2010 = 100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>E_IDX2015</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>2015 = 100</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>2015 = 100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>E_KGPHA</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Kilogramm pro Hektar</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>Kilogram per hectare</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>E_MILIGPL</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Milligramm pro Liter</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Miligrams per litre</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>E_MIN</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Minuten</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Minutes</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>E_MNEUR</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Millionen EUR</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Million EUR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>E_MNEW</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Millionen Einwohner/-innen</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Million inhabitants</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>E_NN</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>E_NUM</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>E_P10H6EWN</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Je 100 000 Einwohner/-innen</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Per 100,000 inhabitants</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>E_P10H6EWNU70</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Je 100 000 Einwohner/-innen unter 70 Jahren (ohne unter 1-Jährige)</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Per 100,000 inhabitants under 70 years (excluding under 1 year olds)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Prozent</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNTPKT</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Prozentpunkte</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Percentage points</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>E_QMPA</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>m² pro Jahr</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>m² per year</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>E_QMPINHABA</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>m² pro Einwohner/-in und Jahr</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>m² per inhabitant and year</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>E_TEUR</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>1 000 EUR</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>1.000 EUR</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Dic_Einheit"/>
+    <sheet sheetId="1" r:id="rId1" name="Dic_Disagg_Kategorien"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,484 +443,280 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="22.8515625"/>
-    <col customWidth="true" min="2" max="2" width="67.52734375"/>
-    <col customWidth="true" min="3" max="3" width="82.6171875"/>
+    <col customWidth="true" min="1" max="1" width="13.8359375"/>
+    <col customWidth="true" min="2" max="2" width="19.921875"/>
+    <col customWidth="true" min="3" max="3" width="28.85546875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>ENr</t>
+          <t>KNr</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Einheit De</t>
+          <t>Kategorie De</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Einheit En</t>
+          <t>Kategorie En</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>E_10H3</t>
+          <t>K_AGE</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>1 000</t>
+          <t>Altersklasse</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>Age group</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>E_10H7</t>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Millionen</t>
+          <t>Luftschadstoff</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Millions</t>
+          <t>Air pollutant</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>E_BNEUR</t>
+          <t>K_AREA</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Milliarden EUR</t>
+          <t>Gebiet</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Billion EUR</t>
+          <t>Area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>E_EWPKM2</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Einwohner/-innen pro m² Siedlungs- und Verkehrsfläche</t>
+          <t>Berechnungsmethode</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Inhabitants per m² settlement and transport area</t>
+          <t>Calculation method</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>E_GINI</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient</t>
+          <t>Straftat</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient</t>
+          <t>Criminal offence</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>E_HAPD</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Hektar pro Tag</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Hectre per day</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>E_IDX_1990</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>1990 = 100</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>1990 = 100</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>E_IDX_2030</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>2030 = 100</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>2030 = 100</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2000</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>2000 = 100</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>2000 = 100</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2005</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>2005 = 100</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>2005 = 100</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>2008 = 100</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>2008 = 100</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2010</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>2010 = 100</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>2010 = 100</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2015</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>2015 = 100</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>2015 = 100</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>E_KGPHA</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Kilogramm pro Hektar</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Kilogram per hectare</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>E_MILIGPL</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Milligramm pro Liter</t>
+          <t>Verstädterungsgrad</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Miligrams per litre</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>E_MIN</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Minuten</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Minutes</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>E_MNEUR</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Millionen EUR</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Million EUR</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>E_MNEW</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Millionen Einwohner/-innen</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Million inhabitants</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>E_NN</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>E_NUM</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Number</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>E_P10H6EWN</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Je 100 000 Einwohner/-innen</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Per 100,000 inhabitants</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>E_P10H6EWNU70</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Je 100 000 Einwohner/-innen unter 70 Jahren (ohne unter 1-Jährige)</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Per 100,000 inhabitants under 70 years (excluding under 1 year olds)</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Prozent</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNTPKT</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Prozentpunkte</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Percentage points</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>E_QMPA</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>m² pro Jahr</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>m² per year</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>E_QMPINHABA</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>m² pro Einwohner/-in und Jahr</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>m² per inhabitant and year</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>E_TEUR</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>1 000 EUR</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>1.000 EUR</t>
+          <t>Degree of urbanisation</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -468,255 +468,17 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>K_AGE</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Altersklasse</t>
+          <t>Qualifizierung</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Age group</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>K_AIRPOLL</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Luftschadstoff</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Air pollutant</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>K_AREA</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Gebiet</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>K_CALCMETH</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Berechnungsmethode</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Calculation method</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>K_CRIM</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Straftat</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Criminal offence</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>K_CRIMOFF</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Straftaten</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Criminal offences</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>K_KREIS</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Kreis</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>County</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>K_LAENDER</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Bundesland</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Federal state</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>K_PM</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Feinstaub</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Fine particulate matter</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>K_SEA</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Meer</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Sea</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Zeitreihe</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Time series</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>K_SEX</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Geschlecht</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>K_SUBINDEX</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Teilindizes</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Sub index</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>K_TYPEAREA</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Art der Fläche</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Type of area</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>K_URBAN</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Verstädterungsgrad</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Degree of urbanisation</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -468,17 +468,272 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>K_AGE</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Altersklasse</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Age group</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>K_AIRPOLL</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Luftschadstoff</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Air pollutant</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Gebiet</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>K_CALCMETH</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Berechnungsmethode</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Calculation method</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIM</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Straftat</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Criminal offence</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>K_CRIMOFF</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Straftaten</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Criminal offences</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>K_KREIS</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Kreis</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>County</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Bundesland</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Federal state</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>K_PM</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Feinstaub</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Fine particulate matter</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
           <t>K_QUALI</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Qualifizierung</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>XXX</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>K_SEA</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Meer</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Zeitreihe</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Time series</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Geschlecht</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>K_SUBINDEX</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Teilindizes</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Sub index</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Art der Fläche</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Type of area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Verstädterungsgrad</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Degree of urbanisation</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Qualification</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -638,100 +638,117 @@
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Risikolage</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>XXXRisikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Art der Fläche</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Type of area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
           <t>K_URBAN</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Verstädterungsgrad</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Degree of urbanisation</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -723,32 +723,49 @@
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Art der Tarifverträge</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>XXXArt der Tarifverträge</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
+          <t>K_TYPEAREA</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Art der Fläche</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Type of area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
           <t>K_URBAN</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Verstädterungsgrad</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Degree of urbanisation</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -771,6 +771,23 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>K_ZUORDN</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Zuordnung</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>XXXZuordnung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -519,270 +519,287 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_BETREU</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Berechnungsmethode</t>
+          <t>Art der Betreuung</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Calculation method</t>
+          <t>XXXArt der Betreuung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Straftat</t>
+          <t>Berechnungsmethode</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Criminal offence</t>
+          <t>Calculation method</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Straftat</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Criminal offence</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Qualifizierung</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Qualification</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Risikolage</t>
+          <t>Qualifizierung</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>XXXRisikolage</t>
+          <t>Qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Risikolage</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>XXXRisikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Art der Tarifverträge</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>XXXArt der Tarifverträge</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Art der Tarifverträge</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>XXXArt der Tarifverträge</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Verstädterungsgrad</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Degree of urbanisation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Zuordnung</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>XXXZuordnung</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,7 +443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
+    <col customWidth="true" min="1" max="1" width="33.54296875"/>
     <col customWidth="true" min="2" max="2" width="19.921875"/>
     <col customWidth="true" min="3" max="3" width="28.85546875"/>
   </cols>
@@ -536,270 +536,287 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Berechnungsmethode</t>
+          <t>Grad der Effektivität</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Calculation method</t>
+          <t>Level of effectiveness</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Straftat</t>
+          <t>Berechnungsmethode</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Criminal offence</t>
+          <t>Calculation method</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Straftat</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Criminal offence</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Qualifizierung</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Qualification</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Risikolage</t>
+          <t>Qualifizierung</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>XXXRisikolage</t>
+          <t>Qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Risikolage</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>XXXRisikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Art der Tarifverträge</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>XXXArt der Tarifverträge</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Art der Tarifverträge</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>XXXArt der Tarifverträge</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Verstädterungsgrad</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Degree of urbanisation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Zuordnung</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>XXXZuordnung</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -444,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="33.54296875"/>
-    <col customWidth="true" min="2" max="2" width="19.921875"/>
+    <col customWidth="true" min="2" max="2" width="24.0234375"/>
     <col customWidth="true" min="3" max="3" width="28.85546875"/>
   </cols>
   <sheetData>
@@ -541,282 +541,299 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Grad der Effektivität</t>
+          <t>Bewertung</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Level of effectiveness</t>
+          <t>Rating</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_BEWERTUNGTEC</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Berechnungsmethode</t>
+          <t>Erfüllungsgrad</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Calculation method</t>
+          <t>Level of compliance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Straftat</t>
+          <t>Berechnungsmethode</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Criminal offence</t>
+          <t>Calculation method</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Straftat</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Criminal offence</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Qualifizierung</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Qualification</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Risikolage</t>
+          <t>Qualifizierung</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>XXXRisikolage</t>
+          <t>Qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Risikolage</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>XXXRisikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Art der Tarifverträge</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>XXXArt der Tarifverträge</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Art der Tarifverträge</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>XXXArt der Tarifverträge</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Verstädterungsgrad</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Degree of urbanisation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Zuordnung</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>XXXZuordnung</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -672,168 +672,185 @@
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Qualifizierung</t>
+          <t>Art der Prävention</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Qualification</t>
+          <t>XXXArt der Prävention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Risikolage</t>
+          <t>Qualifizierung</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>XXXRisikolage</t>
+          <t>Qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Risikolage</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>XXXRisikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Art der Tarifverträge</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>XXXArt der Tarifverträge</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Art der Tarifverträge</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>XXXArt der Tarifverträge</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Verstädterungsgrad</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Degree of urbanisation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Zuordnung</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>XXXZuordnung</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -740,117 +740,134 @@
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Sektoren</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>XXXSektoren</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Art der Tarifverträge</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>XXXArt der Tarifverträge</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Art der Tarifverträge</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>XXXArt der Tarifverträge</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Degree of urbanisation</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
+          <t>K_URBAN</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Verstädterungsgrad</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Degree of urbanisation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
           <t>K_ZUORDN</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Zuordnung</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>XXXZuordnung</t>
         </is>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -677,7 +677,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Art der Prävention</t>
+          <t>Art der Maßnahme</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Art der Tarifverträge</t>
+          <t>Art des Tarifvertrags</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -541,12 +541,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Bewertung</t>
+          <t>Grad der Effektivität</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Level of compliance</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Erfüllungsgrad</t>
+          <t>Grad der Umsetzung</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Level of compliance</t>
+          <t>Rating</t>
         </is>
       </c>
     </row>

--- a/Dic_Disagg_Kategorien.xlsx
+++ b/Dic_Disagg_Kategorien.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -541,333 +541,316 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Grad der Effektivität</t>
+          <t>Grad der Umsetzung</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Level of compliance</t>
+          <t>xxxLevel of compliance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNGTEC</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Grad der Umsetzung</t>
+          <t>Berechnungsmethode</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Calculation method</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_CRIM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Berechnungsmethode</t>
+          <t>Straftat</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Calculation method</t>
+          <t>Criminal offence</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>K_CRIM</t>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Straftat</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Criminal offence</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_KREIS</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Kreis</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>County</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>K_KREIS</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Kreis</t>
+          <t>Bundesland</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Federal state</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t>K_PM</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Bundesland</t>
+          <t>Feinstaub</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Federal state</t>
+          <t>Fine particulate matter</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>K_PM</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Feinstaub</t>
+          <t>Art der Maßnahme</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Fine particulate matter</t>
+          <t>XXXArt der Prävention</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>K_PRAEV</t>
+          <t>K_QUALI</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Art der Maßnahme</t>
+          <t>Qualifizierung</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>XXXArt der Prävention</t>
+          <t>Qualification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>K_QUALI</t>
+          <t>K_RISIKO</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Qualifizierung</t>
+          <t>Risikolage</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Qualification</t>
+          <t>XXXRisikolage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>K_RISIKO</t>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Risikolage</t>
+          <t>Meer</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>XXXRisikolage</t>
+          <t>Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Meer</t>
+          <t>Sektoren</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Sea</t>
+          <t>XXXSektoren</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>K_SEKTOREN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Sektoren</t>
+          <t>Zeitreihe</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>XXXSektoren</t>
+          <t>Time series</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Zeitreihe</t>
+          <t>Geschlecht</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Time series</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Geschlecht</t>
+          <t>Teilindizes</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Sub index</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t>K_TARIF</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Teilindizes</t>
+          <t>Art des Tarifvertrags</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Sub index</t>
+          <t>XXXArt der Tarifverträge</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>K_TARIF</t>
+          <t>K_TYPEAREA</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Art des Tarifvertrags</t>
+          <t>Art der Fläche</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>XXXArt der Tarifverträge</t>
+          <t>Type of area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>K_TYPEAREA</t>
+          <t>K_URBAN</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Art der Fläche</t>
+          <t>Verstädterungsgrad</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Type of area</t>
+          <t>Degree of urbanisation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_ZUORDN</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Verstädterungsgrad</t>
+          <t>Zuordnung</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>Degree of urbanisation</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>K_ZUORDN</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Zuordnung</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>XXXZuordnung</t>
         </is>
